--- a/data/trans_bre/P22_R4-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P22_R4-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.156325676530166</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.942679566166243</v>
+        <v>5.942679566166231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.01504918407147379</v>
@@ -649,7 +649,7 @@
         <v>0.08656904787596537</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2001924197040538</v>
+        <v>0.2001924197040534</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.632968179153184</v>
+        <v>-6.863286466821456</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.746437058475303</v>
+        <v>-7.719493176261684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.081398603282302</v>
+        <v>-4.287541808169093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5568536106889309</v>
+        <v>0.6279543479412328</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2517048914550291</v>
+        <v>-0.2665923036554393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3006501721831643</v>
+        <v>-0.3030520631965355</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1460028082168938</v>
+        <v>-0.1540416963386122</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02126507560850203</v>
+        <v>0.02090647776229241</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.927835473397015</v>
+        <v>5.713202075692854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.8121563567239</v>
+        <v>4.972092418668787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.432086121166154</v>
+        <v>8.565129531271122</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.35670732499543</v>
+        <v>11.0302823217879</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2793472246261907</v>
+        <v>0.2658038145590365</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2440533526270783</v>
+        <v>0.2464660338931425</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.386574228653677</v>
+        <v>0.3838911555051848</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4310854654255215</v>
+        <v>0.4187169859530017</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-4.691664299834492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.45932177771507</v>
+        <v>-5.459321777715065</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3433743916558812</v>
@@ -749,7 +749,7 @@
         <v>-0.2210688562349928</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1768018868075861</v>
+        <v>-0.1768018868075859</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.0108707329525</v>
+        <v>-13.30000218236882</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-15.81462555257745</v>
+        <v>-15.34781804835127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.003533853162</v>
+        <v>-10.3695669268765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-11.72512833065347</v>
+        <v>-10.71566153594952</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5135304041274553</v>
+        <v>-0.5233245666472042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5405356144070458</v>
+        <v>-0.5257952218818917</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4522213930731162</v>
+        <v>-0.4305474958382906</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3346744323476438</v>
+        <v>-0.3118128761967191</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.088132162024406</v>
+        <v>-2.262799025128744</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.977350791548856</v>
+        <v>-1.888337031207195</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.407880514118714</v>
+        <v>1.710417875416176</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4862549220891837</v>
+        <v>0.6826760689074092</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1065957356275514</v>
+        <v>-0.1184937007194186</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08633764392678399</v>
+        <v>-0.07731101181885161</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08580275894432883</v>
+        <v>0.09442172506213753</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02208944434946114</v>
+        <v>0.02554993055056551</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.145032878179882</v>
+        <v>-5.164844187634095</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.341314148941934</v>
+        <v>-1.213552589501021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.02031307429107901</v>
+        <v>-0.152409162399885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2372593289941544</v>
+        <v>-0.3266657252351279</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.657226979813213</v>
+        <v>-0.6434495044143278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2283372714854662</v>
+        <v>-0.2387546718993501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08817565634388147</v>
+        <v>-0.05819922299282457</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03382999362334021</v>
+        <v>-0.04902041348387499</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.451467631569998</v>
+        <v>3.546166694888869</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.305993343631947</v>
+        <v>6.20565759519056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.543217004909659</v>
+        <v>8.623941293265469</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.68188247617964</v>
+        <v>8.131070109724764</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5580800616378341</v>
+        <v>0.6358865558347193</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.657895158913955</v>
+        <v>1.461166738894621</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.560506921275813</v>
+        <v>4.01357142713455</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.493480276548202</v>
+        <v>1.389490546578663</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.2513000709048749</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5913184818722037</v>
+        <v>0.5913184818722039</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9394210313036747</v>
+        <v>-0.9621349700981978</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.1456160048988816</v>
+        <v>0.07724935058444186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8078107594100371</v>
+        <v>-0.9080326113645324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.158674066902182</v>
+        <v>1.229165886644325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1616141730706864</v>
+        <v>-0.1687474790072192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03640541991406543</v>
+        <v>0.01156591275374006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2088682848822076</v>
+        <v>-0.2421702422876861</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1669117375101699</v>
+        <v>0.1547153091594591</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.590870061970351</v>
+        <v>3.8579271523295</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.037003445275298</v>
+        <v>4.291671308442313</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.701368283118881</v>
+        <v>2.674831693243057</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.94095987542047</v>
+        <v>6.072734773284571</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7441535428958548</v>
+        <v>0.8553672310990471</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.343025259024463</v>
+        <v>1.428374735794606</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.002718051218861</v>
+        <v>1.021390399869564</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.268699313111424</v>
+        <v>1.328708973664875</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.636240556265124</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4140016299459904</v>
+        <v>0.4140016299459912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1753838512118786</v>
@@ -1049,7 +1049,7 @@
         <v>0.3801014189903201</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.116192897540825</v>
+        <v>0.1161928975408252</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.984108475426035</v>
+        <v>-5.565772864731962</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.258373087291033</v>
+        <v>-1.263423801548752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.031290334251476</v>
+        <v>-0.8679083840468538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.83038025629703</v>
+        <v>-2.026260074303761</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.506854996291513</v>
+        <v>-0.5333914827308142</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4342831750572703</v>
+        <v>-0.4051429115023769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4415734072428572</v>
+        <v>-0.4065768054579545</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3539914919411834</v>
+        <v>-0.3941703663919848</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.405480371770989</v>
+        <v>1.994615163687129</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.084336808175056</v>
+        <v>2.289398877344683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.081980656859446</v>
+        <v>2.238994650715166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.137224375788998</v>
+        <v>2.30921559987559</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4319831127452033</v>
+        <v>0.3767328653364982</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.45957797659334</v>
+        <v>2.012584590964275</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.063109479145863</v>
+        <v>2.273651629078304</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9983893392920651</v>
+        <v>1.028410375882975</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-2.637775806262725</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-4.87659041130183</v>
+        <v>-4.876590411301827</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3932353231348373</v>
@@ -1149,7 +1149,7 @@
         <v>-0.3411228526306542</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4166110513439247</v>
+        <v>-0.4166110513439245</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.104686884353827</v>
+        <v>-0.8054378001049091</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.260067901539274</v>
+        <v>-5.659429554858048</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.838695985250172</v>
+        <v>-6.61902244962898</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-13.51834801174894</v>
+        <v>-12.97813426414032</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1277400843474225</v>
+        <v>-0.1030905014325671</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.518088199428944</v>
+        <v>-0.5305304279078117</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6150442462565849</v>
+        <v>-0.6253808972819024</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6894716796953184</v>
+        <v>-0.6808765537693894</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.131848525229431</v>
+        <v>4.78991675453405</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.640870379466691</v>
+        <v>1.784000630856333</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1883541164115035</v>
+        <v>0.4869359995039902</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.043259120852927</v>
+        <v>1.636893575855343</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.328678515644423</v>
+        <v>1.199561111321343</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3800137000644431</v>
+        <v>0.3897453531161048</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04503990710083559</v>
+        <v>0.09249741450703947</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1485711983562598</v>
+        <v>0.2845251908164027</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.3838382648695376</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.4025868046162617</v>
+        <v>-0.4025868046162673</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.09367105090685579</v>
@@ -1249,7 +1249,7 @@
         <v>-0.04703994940783934</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.02985899302078241</v>
+        <v>-0.02985899302078282</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.565632143763846</v>
+        <v>-2.500348028980924</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.03375749041038</v>
+        <v>-3.045537248590207</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.676296491883782</v>
+        <v>-1.771986501546668</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.213301305999862</v>
+        <v>-2.057017050881487</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2296018595517928</v>
+        <v>-0.2222211809231415</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3019025136234156</v>
+        <v>-0.3039457280953138</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1902980151913074</v>
+        <v>-0.1971847094907721</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1473172440995286</v>
+        <v>-0.1421253365122265</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4900249330413856</v>
+        <v>0.5465110589844103</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2235218413722284</v>
+        <v>-0.06624147172000154</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9811942230008114</v>
+        <v>0.8549762355902997</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.103327669596465</v>
+        <v>1.115107728445631</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04789113183603843</v>
+        <v>0.05317836160997711</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.0241832641337981</v>
+        <v>-0.01042198275357351</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1326096336005905</v>
+        <v>0.1151368584688352</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.08883192022579052</v>
+        <v>0.08776533958567209</v>
       </c>
     </row>
     <row r="25">
